--- a/biology/Zoologie/Aidachar/Aidachar.xlsx
+++ b/biology/Zoologie/Aidachar/Aidachar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aidachar paludalis
-Aidachar est un genre éteint de poissons à nageoires rayonnées de l’ordre également éteint des Ichthyodectiformes. Il a vécu lors du Crétacé supérieur. Ses restes fossiles ont été mis au jour dans la formation de Bissekty, en Asie centrale[1]. Son espèce type, unique espèce de ce genre, est Aidachar paludalis.
+Aidachar est un genre éteint de poissons à nageoires rayonnées de l’ordre également éteint des Ichthyodectiformes. Il a vécu lors du Crétacé supérieur. Ses restes fossiles ont été mis au jour dans la formation de Bissekty, en Asie centrale. Son espèce type, unique espèce de ce genre, est Aidachar paludalis.
 Son nom provient du Aydahar, un dragon mythique kazakh.
 </t>
         </is>
